--- a/output/1Y_P103_1VAL-D.xlsx
+++ b/output/1Y_P103_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.414</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>574.2506</v>
       </c>
-      <c r="G2" s="1">
-        <v>574.2506</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.145200000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.414</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.145200000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E3" s="1">
+        <v>574.2506</v>
+      </c>
       <c r="F3" s="1">
         <v>546.5257</v>
       </c>
-      <c r="G3" s="1">
-        <v>1120.7763</v>
-      </c>
       <c r="H3" s="1">
-        <v>20400.9313</v>
+        <v>10452.7966</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8448</v>
+        <v>10452.7966</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.414</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20400.9313</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0227</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.699</v>
       </c>
+      <c r="E4" s="1">
+        <v>1120.7763</v>
+      </c>
       <c r="F4" s="1">
         <v>565.0037</v>
       </c>
-      <c r="G4" s="1">
-        <v>1685.78</v>
-      </c>
       <c r="H4" s="1">
-        <v>29681.8658</v>
+        <v>19733.7332</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.7959</v>
+        <v>19733.7332</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8448</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29681.8658</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0237</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E5" s="1">
+        <v>1685.78</v>
+      </c>
       <c r="F5" s="1">
         <v>553.7252</v>
       </c>
-      <c r="G5" s="1">
-        <v>2239.5052</v>
-      </c>
       <c r="H5" s="1">
-        <v>40234.5025</v>
+        <v>30286.3865</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8611</v>
+        <v>30286.3865</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.7959</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40234.5025</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0139</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.696</v>
       </c>
+      <c r="E6" s="1">
+        <v>2239.5052</v>
+      </c>
       <c r="F6" s="1">
         <v>534.8738</v>
       </c>
-      <c r="G6" s="1">
-        <v>2774.379</v>
-      </c>
       <c r="H6" s="1">
-        <v>51600.9519</v>
+        <v>41652.7811</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0221</v>
+        <v>41652.7811</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8611</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51600.9519</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0272</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.8704</v>
       </c>
+      <c r="E7" s="1">
+        <v>2774.379</v>
+      </c>
       <c r="F7" s="1">
         <v>559.5846</v>
       </c>
-      <c r="G7" s="1">
-        <v>3333.9635</v>
-      </c>
       <c r="H7" s="1">
-        <v>59270.2035</v>
+        <v>49322.077</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9966</v>
+        <v>49322.077</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.0221</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59270.2035</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0378</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.5604</v>
       </c>
+      <c r="E8" s="1">
+        <v>3333.9635</v>
+      </c>
       <c r="F8" s="1">
         <v>569.4631000000001</v>
       </c>
-      <c r="G8" s="1">
-        <v>3903.4266</v>
-      </c>
       <c r="H8" s="1">
-        <v>68190.5214</v>
+        <v>58242.3425</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.933</v>
+        <v>58242.3425</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9966</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68190.5214</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0156</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.4279</v>
       </c>
+      <c r="E9" s="1">
+        <v>3903.4266</v>
+      </c>
       <c r="F9" s="1">
         <v>573.7926</v>
       </c>
-      <c r="G9" s="1">
-        <v>4477.2192</v>
-      </c>
       <c r="H9" s="1">
-        <v>77623.7886</v>
+        <v>67675.6594</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8682</v>
+        <v>67675.6594</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.933</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77623.7886</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0072</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.5932</v>
       </c>
+      <c r="E10" s="1">
+        <v>4477.2192</v>
+      </c>
       <c r="F10" s="1">
         <v>568.4014</v>
       </c>
-      <c r="G10" s="1">
-        <v>5045.6207</v>
-      </c>
       <c r="H10" s="1">
-        <v>88308.4529</v>
+        <v>78360.2911</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.8373</v>
+        <v>78360.2911</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8682</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>88308.4529</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0078</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.2741</v>
       </c>
+      <c r="E11" s="1">
+        <v>5045.6207</v>
+      </c>
       <c r="F11" s="1">
         <v>614.4733</v>
       </c>
-      <c r="G11" s="1">
-        <v>5660.094</v>
-      </c>
       <c r="H11" s="1">
-        <v>91635.2234</v>
+        <v>81687.0849</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6676</v>
+        <v>81687.0849</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.8373</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>91635.2234</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0679</v>
+        <v>-0.0755</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.0497</v>
       </c>
+      <c r="E12" s="1">
+        <v>5660.094</v>
+      </c>
       <c r="F12" s="1">
         <v>586.5205999999999</v>
       </c>
-      <c r="G12" s="1">
-        <v>6246.6146</v>
-      </c>
       <c r="H12" s="1">
-        <v>105950.0788</v>
+        <v>96001.9859</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6095</v>
+        <v>96001.9859</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6676</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>105950.0788</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0425</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.4616</v>
       </c>
+      <c r="E13" s="1">
+        <v>6246.6146</v>
+      </c>
       <c r="F13" s="1">
         <v>572.6852</v>
       </c>
-      <c r="G13" s="1">
-        <v>6819.2998</v>
-      </c>
       <c r="H13" s="1">
-        <v>118458.0562</v>
+        <v>108509.9414</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5971</v>
+        <v>108509.9414</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6095</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>118458.0562</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0216</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.8249</v>
       </c>
+      <c r="E14" s="1">
+        <v>6819.2998</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6819.2998</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6246.6146</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120923.233</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5971</v>
+        <v>120923.233</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1307</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120923.233</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120923.233</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120923.233</v>
+        <v>110768.0926</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0587</v>
+        <v>0.0204</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.414</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>574.2506</v>
       </c>
       <c r="G2" s="1">
-        <v>574.2506</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.145200000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.414</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.145200000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.2974</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>574.2506</v>
       </c>
       <c r="F3" s="1">
         <v>524.4996</v>
       </c>
       <c r="G3" s="1">
-        <v>1098.7502</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10452.7966</v>
       </c>
       <c r="I3" s="1">
-        <v>19596.9784</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8357</v>
+        <v>10452.7966</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9596.9784</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.7122</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9596.9784</v>
       </c>
-      <c r="O3" s="1">
-        <v>403.0216</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20403.0216</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0228</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.699</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1098.7502</v>
       </c>
       <c r="F4" s="1">
         <v>587.7745</v>
       </c>
       <c r="G4" s="1">
-        <v>1686.5247</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29694.9779</v>
+        <v>19345.914</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>403.0216</v>
       </c>
       <c r="J4" s="1">
-        <v>17.7881</v>
+        <v>19748.9356</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.2025</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10403.0216</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29694.9779</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0233</v>
+        <v>-0.0344</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.0595</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1686.5247</v>
       </c>
       <c r="F5" s="1">
         <v>539.9278</v>
       </c>
       <c r="G5" s="1">
-        <v>2226.4525</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30299.7657</v>
       </c>
       <c r="I5" s="1">
-        <v>39750.8256</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8539</v>
+        <v>30299.7657</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29750.8256</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6403</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9750.8256</v>
       </c>
-      <c r="O5" s="1">
-        <v>249.1744</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40249.1744</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.014</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.696</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2226.4525</v>
       </c>
       <c r="F6" s="1">
         <v>461.8496</v>
       </c>
       <c r="G6" s="1">
-        <v>2688.3021</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41410.0124</v>
       </c>
       <c r="I6" s="1">
-        <v>48385.5664</v>
+        <v>249.1744</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9986</v>
+        <v>41659.1868</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38385.5664</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.2407</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8634.740900000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>1614.4336</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51614.4336</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0272</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.8704</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2688.3021</v>
       </c>
       <c r="F7" s="1">
         <v>649.9258</v>
       </c>
       <c r="G7" s="1">
-        <v>3338.2279</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>59346.0141</v>
+        <v>47791.8286</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1614.4336</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9736</v>
+        <v>49406.2622</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.5991</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11614.4336</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59346.0141</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0368</v>
+        <v>-0.0436</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.5604</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3338.2279</v>
       </c>
       <c r="F8" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3907.691</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>68265.01730000001</v>
+        <v>58316.8384</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9134</v>
+        <v>58316.8384</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9736</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68265.01730000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0156</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.4279</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3907.691</v>
       </c>
       <c r="F9" s="1">
         <v>573.7926</v>
       </c>
       <c r="G9" s="1">
-        <v>4481.4836</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>77697.72199999999</v>
+        <v>67749.5928</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8512</v>
+        <v>67749.5928</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9134</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77697.72199999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0072</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.5932</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4481.4836</v>
       </c>
       <c r="F10" s="1">
         <v>568.4014</v>
       </c>
       <c r="G10" s="1">
-        <v>5049.885</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>88383.08779999999</v>
+        <v>78434.92600000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.8222</v>
+        <v>78434.92600000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8512</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>88383.08779999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0078</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.2741</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5049.885</v>
       </c>
       <c r="F11" s="1">
         <v>614.4733</v>
       </c>
       <c r="G11" s="1">
-        <v>5664.3583</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91704.2622</v>
+        <v>81756.1237</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6543</v>
+        <v>81756.1237</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.8222</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>91704.2622</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0679</v>
+        <v>-0.0755</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.0497</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5664.3583</v>
       </c>
       <c r="F12" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6250.8789</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>106022.4075</v>
+        <v>96074.3146</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5975</v>
+        <v>96074.3146</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6543</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>106022.4075</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0425</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.4616</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6250.8789</v>
       </c>
       <c r="F13" s="1">
         <v>572.6852</v>
       </c>
       <c r="G13" s="1">
-        <v>6823.5641</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>118532.1324</v>
+        <v>108584.0177</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5861</v>
+        <v>108584.0177</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5975</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>118532.1324</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0216</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.8249</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6823.5641</v>
       </c>
       <c r="F14" s="1">
         <v>-6823.5641</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120998.8509</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5861</v>
+        <v>120998.8509</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1206</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120998.8509</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120998.8509</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>120998.8509</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0586</v>
+        <v>0.0204</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.414</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>574.2506</v>
       </c>
       <c r="G2" s="1">
-        <v>574.2506</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.145200000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.414</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.145200000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.2974</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>574.2506</v>
       </c>
       <c r="F3" s="1">
         <v>527.2464</v>
       </c>
       <c r="G3" s="1">
-        <v>1101.497</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10452.7966</v>
       </c>
       <c r="I3" s="1">
-        <v>19647.2391</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8369</v>
+        <v>10452.7966</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9647.239100000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.7997</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9647.239100000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>352.7609</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20402.7609</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0228</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.699</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1101.497</v>
       </c>
       <c r="F4" s="1">
         <v>584.9348</v>
       </c>
       <c r="G4" s="1">
-        <v>1686.4318</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29693.3427</v>
+        <v>19394.2788</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>352.7609</v>
       </c>
       <c r="J4" s="1">
-        <v>17.789</v>
+        <v>19747.0397</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1571</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10352.7609</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29693.3427</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0233</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.0595</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1686.4318</v>
       </c>
       <c r="F5" s="1">
         <v>553.7252</v>
       </c>
       <c r="G5" s="1">
-        <v>2240.157</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40246.2131</v>
+        <v>30298.0972</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8559</v>
+        <v>30298.0972</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.789</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40246.2131</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0139</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.696</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2240.157</v>
       </c>
       <c r="F6" s="1">
         <v>475.1629</v>
       </c>
       <c r="G6" s="1">
-        <v>2715.3199</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41664.9046</v>
       </c>
       <c r="I6" s="1">
-        <v>48883.645</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0029</v>
+        <v>41664.9046</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38883.645</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.3576</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8883.645</v>
       </c>
-      <c r="O6" s="1">
-        <v>1116.355</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51618.8613</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0273</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.8704</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2715.3199</v>
       </c>
       <c r="F7" s="1">
         <v>622.0540999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3337.374</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>59330.8331</v>
+        <v>48272.1425</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1116.355</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9782</v>
+        <v>49388.4975</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.414</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11116.355</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59330.8331</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0371</v>
+        <v>-0.0441</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.5604</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3337.374</v>
       </c>
       <c r="F8" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3906.8371</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>68250.0996</v>
+        <v>58301.9207</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9173</v>
+        <v>58301.9207</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9782</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68250.0996</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0156</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.4279</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3906.8371</v>
       </c>
       <c r="F9" s="1">
         <v>573.7926</v>
       </c>
       <c r="G9" s="1">
-        <v>4480.6297</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>77682.9169</v>
+        <v>67734.78780000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8546</v>
+        <v>67734.78780000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9173</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77682.9169</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0072</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.5932</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4480.6297</v>
       </c>
       <c r="F10" s="1">
         <v>568.4014</v>
       </c>
       <c r="G10" s="1">
-        <v>5049.0311</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>88368.14230000001</v>
+        <v>78419.98050000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.8252</v>
+        <v>78419.98050000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8546</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>88368.14230000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0078</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.2741</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5049.0311</v>
       </c>
       <c r="F11" s="1">
         <v>614.4733</v>
       </c>
       <c r="G11" s="1">
-        <v>5663.5044</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>91690.4372</v>
+        <v>81742.2988</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6569</v>
+        <v>81742.2988</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.8252</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>91690.4372</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0679</v>
+        <v>-0.0755</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.0497</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5663.5044</v>
       </c>
       <c r="F12" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6250.025</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>106007.9238</v>
+        <v>96059.8309</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5999</v>
+        <v>96059.8309</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6569</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>106007.9238</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0425</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.4616</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6250.025</v>
       </c>
       <c r="F13" s="1">
         <v>572.6852</v>
       </c>
       <c r="G13" s="1">
-        <v>6822.7102</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>118517.2988</v>
+        <v>108569.184</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5883</v>
+        <v>108569.184</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5999</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>118517.2988</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0216</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.8249</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6822.7102</v>
       </c>
       <c r="F14" s="1">
         <v>-6822.7102</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120983.7085</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5883</v>
+        <v>120983.7085</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1226</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120983.7085</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120983.7085</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>120983.7085</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0586</v>
+        <v>0.0204</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.414</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>574.2506</v>
       </c>
       <c r="G2" s="1">
-        <v>574.2506</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.145200000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.414</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.145200000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.2974</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>574.2506</v>
       </c>
       <c r="F3" s="1">
         <v>529.9933</v>
       </c>
       <c r="G3" s="1">
-        <v>1104.2439</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10452.7966</v>
       </c>
       <c r="I3" s="1">
-        <v>19697.4998</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.838</v>
+        <v>10452.7966</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9697.4998</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.8872</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9697.4998</v>
       </c>
-      <c r="O3" s="1">
-        <v>302.5002</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20402.5002</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0228</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.699</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1104.2439</v>
       </c>
       <c r="F4" s="1">
         <v>582.095</v>
       </c>
       <c r="G4" s="1">
-        <v>1686.339</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29691.7075</v>
+        <v>19442.6436</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>302.5002</v>
       </c>
       <c r="J4" s="1">
-        <v>17.79</v>
+        <v>19745.1438</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1119</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10302.5002</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29691.7075</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0234</v>
+        <v>-0.0346</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.0595</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1686.339</v>
       </c>
       <c r="F5" s="1">
         <v>553.7252</v>
       </c>
       <c r="G5" s="1">
-        <v>2240.0642</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40244.5446</v>
+        <v>30296.4287</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8566</v>
+        <v>30296.4287</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.79</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40244.5446</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0139</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.696</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2240.0642</v>
       </c>
       <c r="F6" s="1">
         <v>502.5444</v>
       </c>
       <c r="G6" s="1">
-        <v>2742.6085</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41663.1772</v>
       </c>
       <c r="I6" s="1">
-        <v>49395.5694</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0104</v>
+        <v>41663.1772</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39395.5694</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.5868</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9395.5694</v>
       </c>
-      <c r="O6" s="1">
-        <v>604.4306</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51614.4807</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0273</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.8704</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2742.6085</v>
       </c>
       <c r="F7" s="1">
         <v>593.4076</v>
       </c>
       <c r="G7" s="1">
-        <v>3336.0161</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>59306.6932</v>
+        <v>48757.2715</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>604.4306</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9855</v>
+        <v>49361.7021</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.2308</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10604.4306</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59306.6932</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0375</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.5604</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3336.0161</v>
       </c>
       <c r="F8" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3905.4792</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>68226.3783</v>
+        <v>58278.1994</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9235</v>
+        <v>58278.1994</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9855</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68226.3783</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0156</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.4279</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3905.4792</v>
       </c>
       <c r="F9" s="1">
         <v>573.7926</v>
       </c>
       <c r="G9" s="1">
-        <v>4479.2718</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>77659.3747</v>
+        <v>67711.24559999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.86</v>
+        <v>67711.24559999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9235</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77659.3747</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0072</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.5932</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4479.2718</v>
       </c>
       <c r="F10" s="1">
         <v>568.4014</v>
       </c>
       <c r="G10" s="1">
-        <v>5047.6732</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>88344.37669999999</v>
+        <v>78396.21490000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.83</v>
+        <v>78396.21490000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.86</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>88344.37669999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0078</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.2741</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5047.6732</v>
       </c>
       <c r="F11" s="1">
         <v>614.4733</v>
       </c>
       <c r="G11" s="1">
-        <v>5662.1465</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>91668.45359999999</v>
+        <v>81720.31510000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6611</v>
+        <v>81720.31510000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.83</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>91668.45359999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0679</v>
+        <v>-0.0755</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.0497</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5662.1465</v>
       </c>
       <c r="F12" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6248.6671</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>105984.8926</v>
+        <v>96036.7996</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6038</v>
+        <v>96036.7996</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6611</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>105984.8926</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0425</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.4616</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6248.6671</v>
       </c>
       <c r="F13" s="1">
         <v>572.6852</v>
       </c>
       <c r="G13" s="1">
-        <v>6821.3523</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>118493.7111</v>
+        <v>108545.5963</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5918</v>
+        <v>108545.5963</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6038</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>118493.7111</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0216</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.8249</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6821.3523</v>
       </c>
       <c r="F14" s="1">
         <v>-6821.3523</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120959.6299</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5918</v>
+        <v>120959.6299</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1258</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120959.6299</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120959.6299</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>120959.6299</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0586</v>
+        <v>0.0204</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.414</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>574.2506</v>
       </c>
       <c r="G2" s="1">
-        <v>574.2506</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.145200000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.414</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.145200000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.2974</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>574.2506</v>
       </c>
       <c r="F3" s="1">
         <v>532.7402</v>
       </c>
       <c r="G3" s="1">
-        <v>1106.9908</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10452.7966</v>
       </c>
       <c r="I3" s="1">
-        <v>19747.7604</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8391</v>
+        <v>10452.7966</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9747.760399999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.9748</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9747.760399999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>252.2396</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20402.2396</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0228</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.699</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1106.9908</v>
       </c>
       <c r="F4" s="1">
         <v>579.2553</v>
       </c>
       <c r="G4" s="1">
-        <v>1686.2461</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29690.0723</v>
+        <v>19491.0084</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>252.2396</v>
       </c>
       <c r="J4" s="1">
-        <v>17.791</v>
+        <v>19743.2479</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.067</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10252.2396</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29690.0723</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0234</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.0595</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1686.2461</v>
       </c>
       <c r="F5" s="1">
         <v>553.7252</v>
       </c>
       <c r="G5" s="1">
-        <v>2239.9713</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40242.8761</v>
+        <v>30294.7601</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8574</v>
+        <v>30294.7601</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.791</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40242.8761</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0139</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.696</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2239.9713</v>
       </c>
       <c r="F6" s="1">
         <v>530.1987</v>
       </c>
       <c r="G6" s="1">
-        <v>2770.17</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>41661.4499</v>
       </c>
       <c r="I6" s="1">
-        <v>49912.5956</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0179</v>
+        <v>41661.4499</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39912.5956</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8184</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9912.595600000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>87.4044</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51610.0737</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0272</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.8704</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2770.17</v>
       </c>
       <c r="F7" s="1">
         <v>564.4756</v>
       </c>
       <c r="G7" s="1">
-        <v>3334.6456</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>59282.3291</v>
+        <v>49247.2516</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>87.4044</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9929</v>
+        <v>49334.656</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.0494</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10087.4044</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59282.3291</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0378</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.5604</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3334.6456</v>
       </c>
       <c r="F8" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3904.1087</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>68202.43670000001</v>
+        <v>58254.2579</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9298</v>
+        <v>58254.2579</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9929</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68202.43670000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0156</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.4279</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3904.1087</v>
       </c>
       <c r="F9" s="1">
         <v>573.7926</v>
       </c>
       <c r="G9" s="1">
-        <v>4477.9013</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>77635.6139</v>
+        <v>67687.48480000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8655</v>
+        <v>67687.48480000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9298</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77635.6139</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0072</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.5932</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4477.9013</v>
       </c>
       <c r="F10" s="1">
         <v>568.4014</v>
       </c>
       <c r="G10" s="1">
-        <v>5046.3027</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>88320.39049999999</v>
+        <v>78372.22870000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.8348</v>
+        <v>78372.22870000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8655</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>88320.39049999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0078</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.2741</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5046.3027</v>
       </c>
       <c r="F11" s="1">
         <v>614.4733</v>
       </c>
       <c r="G11" s="1">
-        <v>5660.776</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>91646.2659</v>
+        <v>81698.1274</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6654</v>
+        <v>81698.1274</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.8348</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>91646.2659</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0679</v>
+        <v>-0.0755</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.0497</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5660.776</v>
       </c>
       <c r="F12" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6247.2966</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>105961.6475</v>
+        <v>96013.5546</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6076</v>
+        <v>96013.5546</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6654</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>105961.6475</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0425</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.4616</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6247.2966</v>
       </c>
       <c r="F13" s="1">
         <v>572.6852</v>
       </c>
       <c r="G13" s="1">
-        <v>6819.9818</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>118469.9044</v>
+        <v>108521.7897</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5954</v>
+        <v>108521.7897</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6076</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>118469.9044</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0216</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.8249</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6819.9818</v>
       </c>
       <c r="F14" s="1">
         <v>-6819.9818</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120935.3278</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5954</v>
+        <v>120935.3278</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1291</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120935.3278</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120935.3278</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>120935.3278</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0586</v>
+        <v>0.0204</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.7769</v>
@@ -4514,99 +4487,99 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.5971</v>
+        <v>16.1307</v>
       </c>
       <c r="D3" s="1">
-        <v>17.5861</v>
+        <v>16.1206</v>
       </c>
       <c r="E3" s="1">
-        <v>17.5883</v>
+        <v>16.1226</v>
       </c>
       <c r="F3" s="1">
-        <v>17.5918</v>
+        <v>16.1258</v>
       </c>
       <c r="G3" s="1">
-        <v>17.5954</v>
+        <v>16.1291</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0317</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0751</v>
+        <v>0.0154</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0736</v>
+        <v>0.0172</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.07389999999999999</v>
+        <v>0.0169</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0743</v>
+        <v>0.0164</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.07480000000000001</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1285</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1168</v>
+        <v>0.1272</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1165</v>
+        <v>0.1264</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1166</v>
+        <v>0.1266</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1167</v>
+        <v>0.1268</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1168</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.0886</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.8172</v>
+        <v>-0.0389</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.8063</v>
+        <v>-0.0244</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.8077</v>
+        <v>-0.0268</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.8110000000000001</v>
+        <v>-0.0309</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.8143</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0142</v>
+        <v>-0.1389</v>
       </c>
       <c r="D7" s="3">
         <v>0.0154</v>
@@ -4623,7 +4596,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
